--- a/data/trans_dic/P56$auxiliar-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.06583866941450303</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3820600783768252</v>
+        <v>0.3820600783768251</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.09935107726463349</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2855925161358984</v>
+        <v>0.2855925161358985</v>
       </c>
     </row>
     <row r="5">
@@ -717,23 +717,23 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.147103767543954</v>
+        <v>0.1041740976430905</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1587889070814519</v>
+        <v>0.1534847531130479</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.1009857937414568</v>
+        <v>0.07912410179825149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0</v>
+        <v>0.02735335680766384</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1263223277593308</v>
+        <v>0.1281218602973039</v>
       </c>
     </row>
     <row r="6">
@@ -746,30 +746,30 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4130931028578651</v>
+        <v>0.4128638416222433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5625824624491936</v>
+        <v>0.5556353443094924</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.5520019429111612</v>
+        <v>0.5568613509772006</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2805434115434632</v>
+        <v>0.3367102442525889</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6569956200268966</v>
+        <v>0.6598175489522665</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.4184223486929255</v>
+        <v>0.4213987290099482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.263791337005875</v>
+        <v>0.2502679317685965</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5054181362038319</v>
+        <v>0.4978022296537842</v>
       </c>
     </row>
     <row r="7">
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2087924636315671</v>
+        <v>0.2087924636315672</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -831,27 +831,27 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0</v>
+        <v>0.06809669854725182</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.08230441937782046</v>
+        <v>0.06058695543748808</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1393609300753751</v>
+        <v>0.145874359367502</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
       <c r="L8" s="5" t="n">
-        <v>0.04729462340710087</v>
+        <v>0.04699345710585377</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1499884275343377</v>
+        <v>0.1455503852963756</v>
       </c>
     </row>
     <row r="9">
@@ -865,27 +865,27 @@
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4903693072643144</v>
+        <v>0.4905224755758715</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.363734274737998</v>
+        <v>0.3256658845222312</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.371474701304332</v>
+        <v>0.3904135020432006</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.342824749333826</v>
+        <v>0.3447039314120524</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.2695927784873854</v>
+        <v>0.2621677274467506</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2737083914062895</v>
+        <v>0.2885950269105636</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3272482723337405</v>
+        <v>0.3173480308634399</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3013973853502315</v>
+        <v>0.3013973853502314</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0</v>
@@ -947,23 +947,23 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1805144192270549</v>
+        <v>0.1616685877654501</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.1716875358495697</v>
+        <v>0.1724674821845966</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1938836997470589</v>
+        <v>0.1976076742429869</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
-        <v>0.1132241399042168</v>
+        <v>0.1151875652309528</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.2219450641988624</v>
+        <v>0.2155643971229655</v>
       </c>
     </row>
     <row r="12">
@@ -977,23 +977,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.4997426099565628</v>
+        <v>0.4907210734184301</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.6234733212519238</v>
+        <v>0.6681690665735951</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.4222293765246514</v>
+        <v>0.4171491937590777</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
-        <v>0.4691964156534579</v>
+        <v>0.4734497284344983</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.3998292412688297</v>
+        <v>0.404693650622142</v>
       </c>
     </row>
     <row r="13">
@@ -1057,31 +1057,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07181991521486171</v>
+        <v>0.0722958941073258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09765875151456159</v>
+        <v>0.09776031929367197</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04488371840716211</v>
+        <v>0.04506337811459027</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2629040148568633</v>
+        <v>0.2594104322783412</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07874779878646813</v>
+        <v>0.07905007445506375</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03244136944751411</v>
+        <v>0.03237302534015579</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02392281593089052</v>
+        <v>0.02367701813091121</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.237976280694811</v>
+        <v>0.2475387533880557</v>
       </c>
     </row>
     <row r="15">
@@ -1094,34 +1094,34 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.4724237162234701</v>
+        <v>0.5401260726950128</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5220781349234724</v>
+        <v>0.5296289646357343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6977339686345223</v>
+        <v>0.6932984124614253</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3530702382641965</v>
+        <v>0.3791319470331846</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2619681615800153</v>
+        <v>0.2101579003126786</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5399225800463051</v>
+        <v>0.5375352152134952</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5436882915903987</v>
+        <v>0.5535939773596273</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2838058912292098</v>
+        <v>0.2725143061294888</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2240879814141458</v>
+        <v>0.2263139452155434</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4776082286133632</v>
+        <v>0.475545352973867</v>
       </c>
     </row>
     <row r="16">
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3963505682809708</v>
+        <v>0.3963505682809706</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0.1894331731024062</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3728724309432961</v>
+        <v>0.3728724309432962</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1181,31 +1181,31 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>0.03317466446176587</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.1891209625536025</v>
+        <v>0.1935025599187024</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.1001978485464299</v>
+        <v>0.101133026665548</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2200173839006488</v>
+        <v>0.236749640329515</v>
       </c>
       <c r="K17" s="5" t="inlineStr"/>
       <c r="L17" s="5" t="n">
-        <v>0.1649191406814808</v>
+        <v>0.1636557962364746</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2751998491933831</v>
+        <v>0.2487144897521222</v>
       </c>
     </row>
     <row r="18">
@@ -1217,31 +1217,31 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.8469900524911775</v>
+        <v>0.8460112603239252</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.6633036139642604</v>
+        <v>0.6608320839807463</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.5188948071920833</v>
+        <v>0.481023421754546</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.533237401382348</v>
+        <v>0.4710814946203641</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5185507219957441</v>
+        <v>0.5142513074113918</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.5285153188732489</v>
+        <v>0.5364295562825074</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.518782820000376</v>
+        <v>0.5177475575615934</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5275908376855011</v>
+        <v>0.5052147786274761</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2683456287587328</v>
+        <v>0.2683456287587329</v>
       </c>
     </row>
     <row r="20">
@@ -1301,27 +1301,27 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.1003610397419535</v>
+        <v>0.1009865320371598</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.04934242323631708</v>
+        <v>0.04792188917030647</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.1013430966718637</v>
+        <v>0.1016030713518925</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.2451675580112879</v>
+        <v>0.2386358564287475</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
       <c r="L20" s="5" t="n">
-        <v>0.1644329237183711</v>
+        <v>0.1710344950624886</v>
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.1985721591472104</v>
+        <v>0.2034553199481206</v>
       </c>
     </row>
     <row r="21">
@@ -1333,27 +1333,27 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.7036529219830034</v>
+        <v>0.7045313204474137</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.2549323905361252</v>
+        <v>0.2623636704183673</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.5156765944136763</v>
+        <v>0.4746587996856089</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.4390373891101139</v>
+        <v>0.4398861804016269</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="n">
-        <v>0.4810355325298412</v>
+        <v>0.4861181037771821</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.3506792505705541</v>
+        <v>0.3566418493510076</v>
       </c>
     </row>
     <row r="22">
@@ -1417,27 +1417,27 @@
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.07431449257955695</v>
+        <v>0.09116372553653521</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.05605744956529966</v>
+        <v>0.0558304489825357</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02869911167248624</v>
+        <v>0.02813800757226081</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1738670198845862</v>
+        <v>0.1744382976311414</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="n">
-        <v>0.04293926432345472</v>
+        <v>0.05456910713107983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01947915832305328</v>
+        <v>0.01900952664679977</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1876597486819818</v>
+        <v>0.1877607973259728</v>
       </c>
     </row>
     <row r="24">
@@ -1449,31 +1449,31 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.3296225302697673</v>
+        <v>0.3362739467537375</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.6091997205812786</v>
+        <v>0.554498664801747</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.3036460361194706</v>
+        <v>0.3130868068069782</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.24077792934744</v>
+        <v>0.2545935548335593</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3772170891463238</v>
+        <v>0.3920067918291709</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.234366756016061</v>
+        <v>0.242585852634508</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1734322399368691</v>
+        <v>0.1704663971598236</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3761376397986348</v>
+        <v>0.3779878296593956</v>
       </c>
     </row>
     <row r="25">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0282614369372821</v>
+        <v>0.02881273237473648</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02991661888769184</v>
+        <v>0.0303902450642064</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1074741774122401</v>
+        <v>0.1057638476050748</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0192152257002711</v>
+        <v>0.01893226730717239</v>
       </c>
       <c r="L26" s="5" t="n">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.09893778331734283</v>
+        <v>0.100639939445555</v>
       </c>
     </row>
     <row r="27">
@@ -1574,34 +1574,34 @@
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.4180721523118962</v>
+        <v>0.4041375410376447</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2383471956759638</v>
+        <v>0.2580125779666697</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.266566874815839</v>
+        <v>0.2583726210376402</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1805730072825888</v>
+        <v>0.1637521850001364</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3535285564993534</v>
+        <v>0.2973222901431284</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.259883601778147</v>
+        <v>0.2724978441377783</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1835614730826065</v>
+        <v>0.1831526512958756</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1429518927002275</v>
+        <v>0.1404120531134788</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2161848748621987</v>
+        <v>0.2305868492830848</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2319480354965412</v>
+        <v>0.2327764039426816</v>
       </c>
     </row>
     <row r="28">
@@ -1661,37 +1661,37 @@
       </c>
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1467034755194083</v>
+        <v>0.1451355415317845</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2366701653125459</v>
+        <v>0.233727929998526</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1321976110607689</v>
+        <v>0.1330239606952352</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2252900549994626</v>
+        <v>0.2239764350763035</v>
       </c>
     </row>
     <row r="30">
@@ -1703,37 +1703,37 @@
       </c>
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2659074905461713</v>
+        <v>0.2581401485362781</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3166590984155079</v>
+        <v>0.3125354102616713</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2253073350252393</v>
+        <v>0.2306721762522151</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.29097976522133</v>
+        <v>0.2957699644937401</v>
       </c>
     </row>
     <row r="31">
@@ -2017,23 +2017,23 @@
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>3124</v>
+        <v>2212</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1343</v>
+        <v>1298</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>2857</v>
+        <v>2238</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1733</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="7">
@@ -2046,30 +2046,30 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2962</v>
+        <v>2925</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>11722</v>
+        <v>11826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5159</v>
+        <v>6192</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5555</v>
+        <v>5579</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>11836</v>
+        <v>11921</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7471</v>
+        <v>7088</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6934</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="8">
@@ -2175,27 +2175,27 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>3038</v>
+        <v>2236</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6231</v>
+        <v>6523</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
       <c r="L10" s="6" t="n">
-        <v>2299</v>
+        <v>2285</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8668</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="11">
@@ -2209,27 +2209,27 @@
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>6413</v>
+        <v>6415</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>13425</v>
+        <v>12020</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6619</v>
+        <v>6957</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15329</v>
+        <v>15413</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>13107</v>
+        <v>12746</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6378</v>
+        <v>6725</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18913</v>
+        <v>18340</v>
       </c>
     </row>
     <row r="12">
@@ -2335,23 +2335,23 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>3226</v>
+        <v>2890</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>3306</v>
+        <v>3321</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>6504</v>
+        <v>6629</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
-        <v>3229</v>
+        <v>3285</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>11412</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="15">
@@ -2365,23 +2365,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>8932</v>
+        <v>8771</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>12006</v>
+        <v>12867</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>14163</v>
+        <v>13993</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
-        <v>13383</v>
+        <v>13504</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>20558</v>
+        <v>20809</v>
       </c>
     </row>
     <row r="16">
@@ -2489,31 +2489,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H18" s="6" t="n">
+        <v>1012</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>5401</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>1059</v>
+      </c>
+      <c r="L18" s="6" t="n">
         <v>1008</v>
       </c>
-      <c r="I18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>5474</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>1055</v>
-      </c>
-      <c r="L18" s="6" t="n">
-        <v>1010</v>
-      </c>
       <c r="M18" s="6" t="n">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>7220</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="19">
@@ -2526,34 +2526,34 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>4727</v>
+        <v>5405</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4970</v>
+        <v>5042</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7545</v>
+        <v>7497</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7928</v>
+        <v>8513</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6529</v>
+        <v>5238</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11242</v>
+        <v>11192</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>7282</v>
+        <v>7415</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8838</v>
+        <v>8486</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7827</v>
+        <v>7905</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>14491</v>
+        <v>14428</v>
       </c>
     </row>
     <row r="20">
@@ -2657,31 +2657,31 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>1452</v>
+        <v>1486</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>1974</v>
+        <v>1992</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3788</v>
+        <v>4076</v>
       </c>
       <c r="K22" s="6" t="inlineStr"/>
       <c r="L22" s="6" t="n">
-        <v>4355</v>
+        <v>4321</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6851</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="23">
@@ -2693,31 +2693,31 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5680</v>
+        <v>5673</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5092</v>
+        <v>5073</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>10222</v>
+        <v>9476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6460</v>
+        <v>5707</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8927</v>
+        <v>8853</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>13955</v>
+        <v>14164</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6699</v>
+        <v>6686</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13133</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="24">
@@ -2821,27 +2821,27 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>7980</v>
+        <v>7768</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
       <c r="L26" s="6" t="n">
-        <v>5072</v>
+        <v>5276</v>
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>9751</v>
+        <v>9991</v>
       </c>
     </row>
     <row r="27">
@@ -2853,27 +2853,27 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>7494</v>
+        <v>7503</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4221</v>
+        <v>4344</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>10414</v>
+        <v>9586</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>14291</v>
+        <v>14318</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="n">
-        <v>14838</v>
+        <v>14994</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>17220</v>
+        <v>17513</v>
       </c>
     </row>
     <row r="28">
@@ -2981,27 +2981,27 @@
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>1108</v>
+        <v>1359</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1231</v>
+        <v>1207</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8977</v>
+        <v>9007</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="n">
-        <v>2189</v>
+        <v>2782</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1224</v>
+        <v>1195</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>12487</v>
+        <v>12494</v>
       </c>
     </row>
     <row r="31">
@@ -3013,31 +3013,31 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>5126</v>
+        <v>5229</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>9083</v>
+        <v>8267</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>10758</v>
+        <v>11092</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10330</v>
+        <v>10923</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>19476</v>
+        <v>20240</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>11948</v>
+        <v>12367</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>10900</v>
+        <v>10714</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>25029</v>
+        <v>25152</v>
       </c>
     </row>
     <row r="32">
@@ -3145,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7147</v>
+        <v>7033</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>8924</v>
+        <v>9077</v>
       </c>
     </row>
     <row r="35">
@@ -3182,34 +3182,34 @@
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>3806</v>
+        <v>3679</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>5649</v>
+        <v>6115</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7979</v>
+        <v>7734</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5429</v>
+        <v>4923</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>8046</v>
+        <v>6767</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>17281</v>
+        <v>18120</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>9021</v>
+        <v>9001</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5568</v>
+        <v>5469</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>6889</v>
+        <v>7348</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>20921</v>
+        <v>20995</v>
       </c>
     </row>
     <row r="36">
@@ -3313,37 +3313,37 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>30110</v>
+        <v>29788</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>65186</v>
+        <v>64375</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>37511</v>
+        <v>37746</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>86513</v>
+        <v>86008</v>
       </c>
     </row>
     <row r="39">
@@ -3355,37 +3355,37 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>54576</v>
+        <v>52982</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>87217</v>
+        <v>86081</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>63931</v>
+        <v>65453</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>111738</v>
+        <v>113577</v>
       </c>
     </row>
     <row r="40">
